--- a/assets/template/month_1.xlsx
+++ b/assets/template/month_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E020A73-28F5-487A-B9E1-58E3CC985AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36B106-A812-44CB-B163-62C85B324985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1320" windowWidth="21600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,29 +484,29 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,41 +530,54 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>322729</xdr:colOff>
+      <xdr:colOff>324970</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>874955</xdr:colOff>
+      <xdr:colOff>885264</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>488128</xdr:rowOff>
+      <xdr:rowOff>470647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA838BC-7E13-F427-45F7-ED763044D439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="322729" y="53788"/>
-          <a:ext cx="1036320" cy="434340"/>
+          <a:off x="324970" y="44823"/>
+          <a:ext cx="1053353" cy="425824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -842,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -863,21 +876,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -892,51 +905,51 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
@@ -946,8 +959,8 @@
       <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -982,52 +995,63 @@
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C8:D8"/>
@@ -1042,17 +1066,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.19685039370078741" top="0.51181102362204722" bottom="0.51181102362204722" header="0.23622047244094491" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="24" fitToWidth="0" orientation="landscape" r:id="rId1"/>

--- a/assets/template/month_1.xlsx
+++ b/assets/template/month_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36B106-A812-44CB-B163-62C85B324985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFB696-1AA4-4AF9-AAFC-D1B598555492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1320" windowWidth="21600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="3090" windowWidth="28080" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,315 +28,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
-      <t xml:space="preserve">Stt
+      <t xml:space="preserve">KẾ HOẠCH NGHIÊN CỨU ĐỘ ỔN ĐỊNH HÀNG THÁNG
 </t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>S. No</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tên sản phẩm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Product name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số lô
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Batch No.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mã số sản phẩm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Product code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mã số đề cương
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Protocol No.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngày bắt đầu nghiên cứu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Study starting date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Điều kiện
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Condition</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thời điểm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Interval time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngày lấy mẫu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Sampling date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chỉ tiêu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Test</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ghi chú
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Remarks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lý thuyết</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Theory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chênh lệch cho phép (ngày)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Allowable difference (days)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thực tế</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Actually</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KẾ HOẠCH NGHIÊN CỨU ĐỘ ỔN ĐỊNH HÀNG THÁNG - THÁNG [3]
-</t>
-    </r>
-    <r>
-      <rPr>
         <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>MONTHLY PLAN FOR STABILITY STUDY - MONTH [MARCH]</t>
+      <t>MONTHLY PLAN FOR STABILITY STUDY</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Người theo dõi / </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Monitored by</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Người kiểm tra / </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Reviewed by</t>
-    </r>
+    <t>Khu vực
+Area</t>
+  </si>
+  <si>
+    <t>Tháng
+Month</t>
+  </si>
+  <si>
+    <t>Stt
+S. No</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm
+Product name</t>
+  </si>
+  <si>
+    <t>Số lô
+Batch No.</t>
+  </si>
+  <si>
+    <t>Mã số sản phẩm
+Product code</t>
+  </si>
+  <si>
+    <t>Mã số đề cương
+Protocol No.</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu nghiên cứu
+Study starting date</t>
+  </si>
+  <si>
+    <t>Điều kiện
+Condition</t>
+  </si>
+  <si>
+    <t>Thời điểm
+Interval time</t>
+  </si>
+  <si>
+    <t>Ngày lấy mẫu
+Sampling date</t>
+  </si>
+  <si>
+    <t>Chỉ tiêu
+Test</t>
+  </si>
+  <si>
+    <t>Ghi chú
+Remarks</t>
+  </si>
+  <si>
+    <t>Lý thuyết
+Theory</t>
+  </si>
+  <si>
+    <t>Chênh lệch cho phép (ngày)
+Allowable difference (days)</t>
+  </si>
+  <si>
+    <t>Thực tế
+Actually</t>
+  </si>
+  <si>
+    <t>Người lập / Ngày
+Prepared by / Date</t>
+  </si>
+  <si>
+    <t>Người phê duyệt / Ngày
+Approved by / Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -363,6 +150,18 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,27 +169,20 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -448,20 +240,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,44 +252,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,15 +322,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>212912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>885264</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>470647</xdr:rowOff>
+      <xdr:colOff>1138869</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -568,8 +360,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="324970" y="44823"/>
-          <a:ext cx="1053353" cy="425824"/>
+          <a:off x="190499" y="212912"/>
+          <a:ext cx="1441429" cy="582706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,18 +643,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
@@ -876,196 +668,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="10"/>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A11:F12"/>
+    <mergeCell ref="G11:M12"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.19685039370078741" top="0.51181102362204722" bottom="0.51181102362204722" header="0.23622047244094491" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="24" fitToWidth="0" orientation="landscape" r:id="rId1"/>

--- a/assets/template/month_1.xlsx
+++ b/assets/template/month_1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFB696-1AA4-4AF9-AAFC-D1B598555492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98896AA5-CD1A-4B81-A208-D5B6F2083745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="3090" windowWidth="28080" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2370" windowWidth="28080" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -267,38 +264,38 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,7 +644,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -668,40 +665,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="20" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -716,51 +713,51 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
@@ -770,8 +767,8 @@
       <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -806,66 +803,71 @@
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A11:F12"/>
+    <mergeCell ref="G11:M12"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D2:J2"/>
@@ -882,18 +884,13 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A11:F12"/>
-    <mergeCell ref="G11:M12"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.19685039370078741" top="0.51181102362204722" bottom="0.51181102362204722" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" scale="24" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;12
 </oddHeader>
-    <oddFooter>&amp;L&amp;12Mã số phụ lục / &amp;"Times New Roman,Italic"Appendix No.&amp;"Times New Roman,Regular" 0002020_A03_02&amp;C&amp;12Ngày hiệu lực / &amp;"Times New Roman,Italic"Appendix effective &amp;"Times New Roman,Regular"18/01/2024&amp;R&amp;12Trang / Page &amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12Mã số phụ lục / &amp;"Times New Roman,Italic"Appendix No.&amp;"Times New Roman,Regular" 0002020_A03_03&amp;C&amp;12Ngày hiệu lực / &amp;"Times New Roman,Italic"Appendix effective &amp;"Times New Roman,Regular"28/05/2025&amp;R&amp;12Trang / Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
